--- a/Code/Results/Cases/Case_3_80/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_80/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.058220924754494</v>
+        <v>0.7699711380781764</v>
       </c>
       <c r="C2">
-        <v>0.09436129100692625</v>
+        <v>0.04922058022340536</v>
       </c>
       <c r="D2">
-        <v>0.05741001414542524</v>
+        <v>0.092481901576285</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.319073135207759</v>
+        <v>2.425831029891569</v>
       </c>
       <c r="G2">
-        <v>1.033312120886052</v>
+        <v>1.729095195964746</v>
       </c>
       <c r="H2">
-        <v>0.7312145512338475</v>
+        <v>1.532709598043098</v>
       </c>
       <c r="I2">
-        <v>0.8031220044953997</v>
+        <v>1.558931407012878</v>
       </c>
       <c r="J2">
-        <v>0.08446217126768829</v>
+        <v>0.1995054774704883</v>
       </c>
       <c r="K2">
-        <v>0.9610247265673308</v>
+        <v>0.5012723984189904</v>
       </c>
       <c r="L2">
-        <v>0.2531799709136635</v>
+        <v>0.364991228517269</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9219699995273629</v>
+        <v>0.7353886737641915</v>
       </c>
       <c r="C3">
-        <v>0.08514936226211489</v>
+        <v>0.04617259397027595</v>
       </c>
       <c r="D3">
-        <v>0.05122099175065387</v>
+        <v>0.09119600002274808</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.284752117926459</v>
+        <v>2.429972555645008</v>
       </c>
       <c r="G3">
-        <v>1.00664187038133</v>
+        <v>1.731814792600233</v>
       </c>
       <c r="H3">
-        <v>0.7267513338899789</v>
+        <v>1.539025822164859</v>
       </c>
       <c r="I3">
-        <v>0.7990117833154073</v>
+        <v>1.565715690066185</v>
       </c>
       <c r="J3">
-        <v>0.08403653508250386</v>
+        <v>0.2002890935999844</v>
       </c>
       <c r="K3">
-        <v>0.833841924418266</v>
+        <v>0.4670836374463363</v>
       </c>
       <c r="L3">
-        <v>0.2291774398310906</v>
+        <v>0.3605543007900565</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8388507160330789</v>
+        <v>0.7144876610159656</v>
       </c>
       <c r="C4">
-        <v>0.07949849552588262</v>
+        <v>0.04428008751497714</v>
       </c>
       <c r="D4">
-        <v>0.04745039504197734</v>
+        <v>0.09043738152759317</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.265674274857879</v>
+        <v>2.433553216909061</v>
       </c>
       <c r="G4">
-        <v>0.9920257924115106</v>
+        <v>1.734309543445391</v>
       </c>
       <c r="H4">
-        <v>0.7250235402500493</v>
+        <v>1.543464844494878</v>
       </c>
       <c r="I4">
-        <v>0.7976995888030345</v>
+        <v>1.57050389180003</v>
       </c>
       <c r="J4">
-        <v>0.0838688237740719</v>
+        <v>0.2008311523061153</v>
       </c>
       <c r="K4">
-        <v>0.7561595307727202</v>
+        <v>0.4462883310801828</v>
       </c>
       <c r="L4">
-        <v>0.2146818271059203</v>
+        <v>0.3579862780355398</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8050968184518865</v>
+        <v>0.7060545776736831</v>
       </c>
       <c r="C5">
-        <v>0.07719556487565171</v>
+        <v>0.04350357955670603</v>
       </c>
       <c r="D5">
-        <v>0.04592065503776155</v>
+        <v>0.09013606622774972</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.258379311163175</v>
+        <v>2.435273464905023</v>
       </c>
       <c r="G5">
-        <v>0.9864909170917855</v>
+        <v>1.735533583150655</v>
       </c>
       <c r="H5">
-        <v>0.7245646092066096</v>
+        <v>1.545414914723864</v>
       </c>
       <c r="I5">
-        <v>0.7974576618865186</v>
+        <v>1.572611740783557</v>
       </c>
       <c r="J5">
-        <v>0.0838233433356379</v>
+        <v>0.2010673872090791</v>
       </c>
       <c r="K5">
-        <v>0.7245890571957432</v>
+        <v>0.4378639671071767</v>
       </c>
       <c r="L5">
-        <v>0.2088313873638228</v>
+        <v>0.3569792028204049</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7994986309930994</v>
+        <v>0.7046593760102269</v>
       </c>
       <c r="C6">
-        <v>0.07681311381511335</v>
+        <v>0.04337432089766935</v>
       </c>
       <c r="D6">
-        <v>0.04566703711776654</v>
+        <v>0.09008650731932022</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.257196312562975</v>
+        <v>2.435574884958839</v>
       </c>
       <c r="G6">
-        <v>0.9855967033023632</v>
+        <v>1.735749360376616</v>
       </c>
       <c r="H6">
-        <v>0.7245029437135031</v>
+        <v>1.5457472495915</v>
       </c>
       <c r="I6">
-        <v>0.79743484050897</v>
+        <v>1.572971208435867</v>
       </c>
       <c r="J6">
-        <v>0.08381715298884629</v>
+        <v>0.2011075411331049</v>
       </c>
       <c r="K6">
-        <v>0.719351505754787</v>
+        <v>0.4364681337670504</v>
       </c>
       <c r="L6">
-        <v>0.207863228246957</v>
+        <v>0.3568143628496827</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8383950445324899</v>
+        <v>0.71437358762023</v>
       </c>
       <c r="C7">
-        <v>0.07946743993053929</v>
+        <v>0.04426963671148343</v>
       </c>
       <c r="D7">
-        <v>0.04742973763841007</v>
+        <v>0.09043328612244039</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.265573979963669</v>
+        <v>2.433575359399534</v>
       </c>
       <c r="G7">
-        <v>0.9919494684732086</v>
+        <v>1.734325211515497</v>
       </c>
       <c r="H7">
-        <v>0.7250163704524795</v>
+        <v>1.543490572246313</v>
       </c>
       <c r="I7">
-        <v>0.7976951557251439</v>
+        <v>1.570531684780534</v>
       </c>
       <c r="J7">
-        <v>0.08386811871029565</v>
+        <v>0.200834276103329</v>
       </c>
       <c r="K7">
-        <v>0.7557334348741449</v>
+        <v>0.446174514586545</v>
       </c>
       <c r="L7">
-        <v>0.2146027021055943</v>
+        <v>0.357972536517579</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.011118623997589</v>
+        <v>0.7579783708798686</v>
       </c>
       <c r="C8">
-        <v>0.09118299153227838</v>
+        <v>0.04817399387237487</v>
       </c>
       <c r="D8">
-        <v>0.05526954026303343</v>
+        <v>0.09203213262835419</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.306811263328427</v>
+        <v>2.427043728704248</v>
       </c>
       <c r="G8">
-        <v>1.023737915370916</v>
+        <v>1.729861687113001</v>
       </c>
       <c r="H8">
-        <v>0.729459589980948</v>
+        <v>1.534771093126835</v>
       </c>
       <c r="I8">
-        <v>0.8014460264279393</v>
+        <v>1.561141433105256</v>
       </c>
       <c r="J8">
-        <v>0.08429555741179939</v>
+        <v>0.1997630396080794</v>
       </c>
       <c r="K8">
-        <v>0.9170767845597538</v>
+        <v>0.4894435233016452</v>
       </c>
       <c r="L8">
-        <v>0.2448510409215601</v>
+        <v>0.3634290118155121</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.354978721776064</v>
+        <v>0.8461074605866088</v>
       </c>
       <c r="C9">
-        <v>0.1142721999005403</v>
+        <v>0.05566424351540888</v>
       </c>
       <c r="D9">
-        <v>0.07090743022871493</v>
+        <v>0.09541091368141963</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.40458587997243</v>
+        <v>2.422464748366949</v>
       </c>
       <c r="G9">
-        <v>1.101054564496977</v>
+        <v>1.72765664344648</v>
       </c>
       <c r="H9">
-        <v>0.7466636033347953</v>
+        <v>1.522118139958252</v>
       </c>
       <c r="I9">
-        <v>0.8189826273170695</v>
+        <v>1.547665751336176</v>
       </c>
       <c r="J9">
-        <v>0.08590940196258856</v>
+        <v>0.1981446808177125</v>
       </c>
       <c r="K9">
-        <v>1.237542507609959</v>
+        <v>0.5758411030798243</v>
       </c>
       <c r="L9">
-        <v>0.3062939569268792</v>
+        <v>0.3753647294920484</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.612071861453188</v>
+        <v>0.9124339081292874</v>
       </c>
       <c r="C10">
-        <v>0.1314169991767358</v>
+        <v>0.06106744206546466</v>
       </c>
       <c r="D10">
-        <v>0.08260360074820738</v>
+        <v>0.09803941765790114</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.488333367611915</v>
+        <v>2.424114426428389</v>
       </c>
       <c r="G10">
-        <v>1.168509554332402</v>
+        <v>1.73003448075454</v>
       </c>
       <c r="H10">
-        <v>0.7651598067103009</v>
+        <v>1.515527807586835</v>
       </c>
       <c r="I10">
-        <v>0.8389195635829907</v>
+        <v>1.540774642113291</v>
       </c>
       <c r="J10">
-        <v>0.0876166241847578</v>
+        <v>0.1972484417691618</v>
       </c>
       <c r="K10">
-        <v>1.476732409762207</v>
+        <v>0.6402491327094992</v>
       </c>
       <c r="L10">
-        <v>0.3530415849457711</v>
+        <v>0.3848826899176885</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.730317911794344</v>
+        <v>0.9429465887147899</v>
       </c>
       <c r="C11">
-        <v>0.1392830975191117</v>
+        <v>0.06350414120169035</v>
       </c>
       <c r="D11">
-        <v>0.08798060976660338</v>
+        <v>0.09926645781003884</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.529405293548621</v>
+        <v>2.425953192681945</v>
       </c>
       <c r="G11">
-        <v>1.201875200600554</v>
+        <v>1.731985806652361</v>
       </c>
       <c r="H11">
-        <v>0.7750099922746045</v>
+        <v>1.513116350340752</v>
       </c>
       <c r="I11">
-        <v>0.8497245840511241</v>
+        <v>1.538293012354593</v>
       </c>
       <c r="J11">
-        <v>0.08851820767681673</v>
+        <v>0.1969040289019723</v>
       </c>
       <c r="K11">
-        <v>1.586664712284488</v>
+        <v>0.6697503705125314</v>
       </c>
       <c r="L11">
-        <v>0.3747314669656134</v>
+        <v>0.3893743979871545</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.775309043104812</v>
+        <v>0.9545494412377309</v>
       </c>
       <c r="C12">
-        <v>0.1422738555261418</v>
+        <v>0.06442381703116951</v>
       </c>
       <c r="D12">
-        <v>0.09002583573236222</v>
+        <v>0.09973556464169064</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.545420835716527</v>
+        <v>2.426805898277138</v>
       </c>
       <c r="G12">
-        <v>1.214928425812573</v>
+        <v>1.732849854085515</v>
       </c>
       <c r="H12">
-        <v>0.7789614135381555</v>
+        <v>1.512287452691496</v>
       </c>
       <c r="I12">
-        <v>0.8540842127817143</v>
+        <v>1.537447183166528</v>
       </c>
       <c r="J12">
-        <v>0.08887863481286473</v>
+        <v>0.1967826876270919</v>
       </c>
       <c r="K12">
-        <v>1.628482104051187</v>
+        <v>0.6809504086623974</v>
       </c>
       <c r="L12">
-        <v>0.3830125082861571</v>
+        <v>0.3910984787737419</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.765609413939615</v>
+        <v>0.9520484178165134</v>
       </c>
       <c r="C13">
-        <v>0.1416291659519544</v>
+        <v>0.06422588391426132</v>
       </c>
       <c r="D13">
-        <v>0.08958494016789587</v>
+        <v>0.0996343368294319</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.54195044976133</v>
+        <v>2.426615298225144</v>
       </c>
       <c r="G13">
-        <v>1.212098018658921</v>
+        <v>1.732658200031793</v>
       </c>
       <c r="H13">
-        <v>0.7781003093297159</v>
+        <v>1.512462223883233</v>
       </c>
       <c r="I13">
-        <v>0.8531330600284193</v>
+        <v>1.537625171170944</v>
       </c>
       <c r="J13">
-        <v>0.08880014703859729</v>
+        <v>0.1968084171176514</v>
       </c>
       <c r="K13">
-        <v>1.619467149492209</v>
+        <v>0.6785370169098144</v>
       </c>
       <c r="L13">
-        <v>0.3812259233468893</v>
+        <v>0.3907261385870413</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.734014903620164</v>
+        <v>0.9439001965027387</v>
       </c>
       <c r="C14">
-        <v>0.1395288930640817</v>
+        <v>0.06357986456536935</v>
       </c>
       <c r="D14">
-        <v>0.08814868417101707</v>
+        <v>0.0993049625481035</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.530713423924468</v>
+        <v>2.426020211239887</v>
       </c>
       <c r="G14">
-        <v>1.2029405138464</v>
+        <v>1.732054384309336</v>
       </c>
       <c r="H14">
-        <v>0.7753305521210194</v>
+        <v>1.513046467966262</v>
       </c>
       <c r="I14">
-        <v>0.8500777713665997</v>
+        <v>1.538221543463678</v>
       </c>
       <c r="J14">
-        <v>0.08854747281377229</v>
+        <v>0.1968938642158093</v>
       </c>
       <c r="K14">
-        <v>1.590101116498118</v>
+        <v>0.6706712345526</v>
       </c>
       <c r="L14">
-        <v>0.3754113599060673</v>
+        <v>0.3895157754975287</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.714691081387372</v>
+        <v>0.9389154563603199</v>
       </c>
       <c r="C15">
-        <v>0.1382440585808524</v>
+        <v>0.06318376212298915</v>
       </c>
       <c r="D15">
-        <v>0.08727014695509183</v>
+        <v>0.0991037897559508</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.523891729637242</v>
+        <v>2.425676068997063</v>
       </c>
       <c r="G15">
-        <v>1.197386787714748</v>
+        <v>1.731700826485735</v>
       </c>
       <c r="H15">
-        <v>0.7736632860936368</v>
+        <v>1.513415306516833</v>
       </c>
       <c r="I15">
-        <v>0.848241792595843</v>
+        <v>1.538599068147001</v>
       </c>
       <c r="J15">
-        <v>0.08839521161250374</v>
+        <v>0.1969473849544769</v>
       </c>
       <c r="K15">
-        <v>1.572138944917839</v>
+        <v>0.6658569218909349</v>
       </c>
       <c r="L15">
-        <v>0.3718587729699436</v>
+        <v>0.3887774068648184</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.604372564291111</v>
+        <v>0.9104466325673286</v>
       </c>
       <c r="C16">
-        <v>0.1309044786455615</v>
+        <v>0.06090777104894585</v>
       </c>
       <c r="D16">
-        <v>0.08225341541162834</v>
+        <v>0.09795985362380577</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.485711987021361</v>
+        <v>2.424016150430802</v>
       </c>
       <c r="G16">
-        <v>1.166385720654546</v>
+        <v>1.729924462309754</v>
       </c>
       <c r="H16">
-        <v>0.7645462156927323</v>
+        <v>1.51569719808424</v>
       </c>
       <c r="I16">
-        <v>0.8382498967710887</v>
+        <v>1.540949964625185</v>
       </c>
       <c r="J16">
-        <v>0.08756030586764041</v>
+        <v>0.1972722217571743</v>
       </c>
       <c r="K16">
-        <v>1.469572929857435</v>
+        <v>0.6383251781123818</v>
       </c>
       <c r="L16">
-        <v>0.3516331843942737</v>
+        <v>0.3845923947519481</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.537046120210618</v>
+        <v>0.8930687047293588</v>
       </c>
       <c r="C17">
-        <v>0.126420663015935</v>
+        <v>0.0595060872693125</v>
       </c>
       <c r="D17">
-        <v>0.07919091103188691</v>
+        <v>0.09726607176377655</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.46307571896908</v>
+        <v>2.423276521683817</v>
       </c>
       <c r="G17">
-        <v>1.148076648432891</v>
+        <v>1.729057504954213</v>
       </c>
       <c r="H17">
-        <v>0.7593312212530208</v>
+        <v>1.517247234735621</v>
       </c>
       <c r="I17">
-        <v>0.8325773787436006</v>
+        <v>1.542559445325324</v>
       </c>
       <c r="J17">
-        <v>0.08708084427755836</v>
+        <v>0.1974876941136863</v>
       </c>
       <c r="K17">
-        <v>1.406958201514698</v>
+        <v>0.6214866884420189</v>
       </c>
       <c r="L17">
-        <v>0.3393385851905464</v>
+        <v>0.3820664177547854</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.498441637803921</v>
+        <v>0.8831054599947379</v>
       </c>
       <c r="C18">
-        <v>0.1238478249666315</v>
+        <v>0.05869787601189103</v>
       </c>
       <c r="D18">
-        <v>0.0774346823954204</v>
+        <v>0.09686997782288387</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.45033370059177</v>
+        <v>2.422953550166596</v>
       </c>
       <c r="G18">
-        <v>1.137795886294299</v>
+        <v>1.728640704058463</v>
       </c>
       <c r="H18">
-        <v>0.7564659163444674</v>
+        <v>1.5181939848962</v>
       </c>
       <c r="I18">
-        <v>0.8294768738706537</v>
+        <v>1.543546656404189</v>
       </c>
       <c r="J18">
-        <v>0.0868167651386571</v>
+        <v>0.1976175865742107</v>
       </c>
       <c r="K18">
-        <v>1.37104789319045</v>
+        <v>0.6118206461274553</v>
       </c>
       <c r="L18">
-        <v>0.3323065578344142</v>
+        <v>0.3806287922166689</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.485390601679939</v>
+        <v>0.879737604375407</v>
       </c>
       <c r="C19">
-        <v>0.122977689318617</v>
+        <v>0.05842388592978409</v>
       </c>
       <c r="D19">
-        <v>0.07684092588517899</v>
+        <v>0.09673637560692327</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.446066164468562</v>
+        <v>2.422861795194137</v>
       </c>
       <c r="G19">
-        <v>1.134356994398914</v>
+        <v>1.728513638127268</v>
       </c>
       <c r="H19">
-        <v>0.7555183928348441</v>
+        <v>1.518524022819577</v>
       </c>
       <c r="I19">
-        <v>0.8284544124695401</v>
+        <v>1.543891468888688</v>
       </c>
       <c r="J19">
-        <v>0.08672933037054875</v>
+        <v>0.1976625899345628</v>
       </c>
       <c r="K19">
-        <v>1.358906364183468</v>
+        <v>0.6085511691403838</v>
       </c>
       <c r="L19">
-        <v>0.3299322268721312</v>
+        <v>0.3801446596623634</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.544200529676147</v>
+        <v>0.8949152989912079</v>
       </c>
       <c r="C20">
-        <v>0.1268973211017084</v>
+        <v>0.05965550583542267</v>
       </c>
       <c r="D20">
-        <v>0.07951637049150406</v>
+        <v>0.09733962097292448</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.465456397949467</v>
+        <v>2.423344654600982</v>
       </c>
       <c r="G20">
-        <v>1.149999562079657</v>
+        <v>1.729141322360064</v>
       </c>
       <c r="H20">
-        <v>0.7598723710680417</v>
+        <v>1.517076517170096</v>
       </c>
       <c r="I20">
-        <v>0.8331643143940468</v>
+        <v>1.542381750477503</v>
       </c>
       <c r="J20">
-        <v>0.0871306661087381</v>
+        <v>0.1974641401862662</v>
       </c>
       <c r="K20">
-        <v>1.413612692343889</v>
+        <v>0.6232772100175339</v>
       </c>
       <c r="L20">
-        <v>0.3406432321681905</v>
+        <v>0.382333734899504</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.743288937174867</v>
+        <v>0.9462922187826166</v>
       </c>
       <c r="C21">
-        <v>0.1401454470195347</v>
+        <v>0.06376969882033734</v>
       </c>
       <c r="D21">
-        <v>0.08857029315729648</v>
+        <v>0.09940158729655479</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.534001168236557</v>
+        <v>2.426190758682907</v>
       </c>
       <c r="G21">
-        <v>1.205618664078372</v>
+        <v>1.732228343272482</v>
       </c>
       <c r="H21">
-        <v>0.7761379646701414</v>
+        <v>1.5128725748515</v>
       </c>
       <c r="I21">
-        <v>0.8509677560261508</v>
+        <v>1.538043825888145</v>
       </c>
       <c r="J21">
-        <v>0.08862116448812785</v>
+        <v>0.1968685200571443</v>
       </c>
       <c r="K21">
-        <v>1.59872129375438</v>
+        <v>0.6729808339315184</v>
       </c>
       <c r="L21">
-        <v>0.3771173498723641</v>
+        <v>0.3898706606335907</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.874666263565217</v>
+        <v>0.9801516271300272</v>
       </c>
       <c r="C22">
-        <v>0.148875312432267</v>
+        <v>0.06644079099849876</v>
       </c>
       <c r="D22">
-        <v>0.09454092307919382</v>
+        <v>0.1007751358419711</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.58151307940129</v>
+        <v>2.428962455141402</v>
       </c>
       <c r="G22">
-        <v>1.244424877181388</v>
+        <v>1.734975232953857</v>
       </c>
       <c r="H22">
-        <v>0.7880665674885137</v>
+        <v>1.510616206281412</v>
       </c>
       <c r="I22">
-        <v>0.8641750959487382</v>
+        <v>1.53575611489552</v>
       </c>
       <c r="J22">
-        <v>0.08970668297310525</v>
+        <v>0.1965321658619565</v>
       </c>
       <c r="K22">
-        <v>1.720812782016708</v>
+        <v>0.7056312883507019</v>
       </c>
       <c r="L22">
-        <v>0.4013524763835079</v>
+        <v>0.3949314659971037</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.804422431190147</v>
+        <v>0.9620546504543483</v>
       </c>
       <c r="C23">
-        <v>0.1442086218990397</v>
+        <v>0.06501680303232149</v>
       </c>
       <c r="D23">
-        <v>0.09134906293589751</v>
+        <v>0.1000396907411414</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.555894539554558</v>
+        <v>2.427399767919354</v>
       </c>
       <c r="G23">
-        <v>1.223476943198435</v>
+        <v>1.733442408185056</v>
       </c>
       <c r="H23">
-        <v>0.7815760431214898</v>
+        <v>1.511775555826119</v>
       </c>
       <c r="I23">
-        <v>0.8569757931423965</v>
+        <v>1.536927029453615</v>
       </c>
       <c r="J23">
-        <v>0.08911676127435797</v>
+        <v>0.1967068492493027</v>
       </c>
       <c r="K23">
-        <v>1.655539021588311</v>
+        <v>0.6881900595870718</v>
       </c>
       <c r="L23">
-        <v>0.3883790852331828</v>
+        <v>0.392218106443508</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.540965704330972</v>
+        <v>0.8940803678430882</v>
       </c>
       <c r="C24">
-        <v>0.1266818086897814</v>
+        <v>0.05958796106908437</v>
       </c>
       <c r="D24">
-        <v>0.07936921649380224</v>
+        <v>0.09730636074253596</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.464379248749026</v>
+        <v>2.423313533190353</v>
       </c>
       <c r="G24">
-        <v>1.149129451017927</v>
+        <v>1.729103174255883</v>
       </c>
       <c r="H24">
-        <v>0.7596273045004978</v>
+        <v>1.517153525337037</v>
       </c>
       <c r="I24">
-        <v>0.8328984616131478</v>
+        <v>1.5424618934995</v>
       </c>
       <c r="J24">
-        <v>0.08710810569998984</v>
+        <v>0.1974747701807438</v>
       </c>
       <c r="K24">
-        <v>1.41060392577333</v>
+        <v>0.6224676696112965</v>
       </c>
       <c r="L24">
-        <v>0.3400532886883809</v>
+        <v>0.3822128353572225</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.261273740224624</v>
+        <v>0.8219877070624477</v>
       </c>
       <c r="C25">
-        <v>0.1080027170914093</v>
+        <v>0.05365557693571077</v>
       </c>
       <c r="D25">
-        <v>0.06664415075015029</v>
+        <v>0.09447103996460271</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.376166323879971</v>
+        <v>2.422822777307076</v>
       </c>
       <c r="G25">
-        <v>1.078384523553808</v>
+        <v>1.727551536448246</v>
       </c>
       <c r="H25">
-        <v>0.7410332274826175</v>
+        <v>1.525065607205065</v>
       </c>
       <c r="I25">
-        <v>0.8130648566105734</v>
+        <v>1.550782699081907</v>
       </c>
       <c r="J25">
-        <v>0.08538495350858</v>
+        <v>0.1985309848058421</v>
       </c>
       <c r="K25">
-        <v>1.150287536068703</v>
+        <v>0.552303828945611</v>
       </c>
       <c r="L25">
-        <v>0.2894137882512808</v>
+        <v>0.3720039863548692</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_80/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_80/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7699711380781764</v>
+        <v>1.058220924754607</v>
       </c>
       <c r="C2">
-        <v>0.04922058022340536</v>
+        <v>0.09436129100691915</v>
       </c>
       <c r="D2">
-        <v>0.092481901576285</v>
+        <v>0.05741001414529734</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.425831029891569</v>
+        <v>1.319073135207773</v>
       </c>
       <c r="G2">
-        <v>1.729095195964746</v>
+        <v>1.03331212088608</v>
       </c>
       <c r="H2">
-        <v>1.532709598043098</v>
+        <v>0.7312145512338617</v>
       </c>
       <c r="I2">
-        <v>1.558931407012878</v>
+        <v>0.8031220044954281</v>
       </c>
       <c r="J2">
-        <v>0.1995054774704883</v>
+        <v>0.0844621712678304</v>
       </c>
       <c r="K2">
-        <v>0.5012723984189904</v>
+        <v>0.9610247265673593</v>
       </c>
       <c r="L2">
-        <v>0.364991228517269</v>
+        <v>0.2531799709136209</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7353886737641915</v>
+        <v>0.9219699995275334</v>
       </c>
       <c r="C3">
-        <v>0.04617259397027595</v>
+        <v>0.08514936226222147</v>
       </c>
       <c r="D3">
-        <v>0.09119600002274808</v>
+        <v>0.05122099175076755</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.429972555645008</v>
+        <v>1.284752117926459</v>
       </c>
       <c r="G3">
-        <v>1.731814792600233</v>
+        <v>1.006641870381344</v>
       </c>
       <c r="H3">
-        <v>1.539025822164859</v>
+        <v>0.7267513338898794</v>
       </c>
       <c r="I3">
-        <v>1.565715690066185</v>
+        <v>0.7990117833154216</v>
       </c>
       <c r="J3">
-        <v>0.2002890935999844</v>
+        <v>0.08403653508252518</v>
       </c>
       <c r="K3">
-        <v>0.4670836374463363</v>
+        <v>0.8338419244182376</v>
       </c>
       <c r="L3">
-        <v>0.3605543007900565</v>
+        <v>0.229177439831119</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7144876610159656</v>
+        <v>0.8388507160329368</v>
       </c>
       <c r="C4">
-        <v>0.04428008751497714</v>
+        <v>0.07949849552539945</v>
       </c>
       <c r="D4">
-        <v>0.09043738152759317</v>
+        <v>0.04745039504204129</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.433553216909061</v>
+        <v>1.265674274857844</v>
       </c>
       <c r="G4">
-        <v>1.734309543445391</v>
+        <v>0.9920257924114964</v>
       </c>
       <c r="H4">
-        <v>1.543464844494878</v>
+        <v>0.725023540249893</v>
       </c>
       <c r="I4">
-        <v>1.57050389180003</v>
+        <v>0.797699588802999</v>
       </c>
       <c r="J4">
-        <v>0.2008311523061153</v>
+        <v>0.08386882377403637</v>
       </c>
       <c r="K4">
-        <v>0.4462883310801828</v>
+        <v>0.756159530772635</v>
       </c>
       <c r="L4">
-        <v>0.3579862780355398</v>
+        <v>0.2146818271060056</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7060545776736831</v>
+        <v>0.8050968184519149</v>
       </c>
       <c r="C5">
-        <v>0.04350357955670603</v>
+        <v>0.07719556487565171</v>
       </c>
       <c r="D5">
-        <v>0.09013606622774972</v>
+        <v>0.04592065503781839</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.435273464905023</v>
+        <v>1.258379311163154</v>
       </c>
       <c r="G5">
-        <v>1.735533583150655</v>
+        <v>0.9864909170917997</v>
       </c>
       <c r="H5">
-        <v>1.545414914723864</v>
+        <v>0.7245646092065954</v>
       </c>
       <c r="I5">
-        <v>1.572611740783557</v>
+        <v>0.7974576618865186</v>
       </c>
       <c r="J5">
-        <v>0.2010673872090791</v>
+        <v>0.0838233433357054</v>
       </c>
       <c r="K5">
-        <v>0.4378639671071767</v>
+        <v>0.7245890571958284</v>
       </c>
       <c r="L5">
-        <v>0.3569792028204049</v>
+        <v>0.2088313873639152</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7046593760102269</v>
+        <v>0.7994986309932699</v>
       </c>
       <c r="C6">
-        <v>0.04337432089766935</v>
+        <v>0.0768131138154402</v>
       </c>
       <c r="D6">
-        <v>0.09008650731932022</v>
+        <v>0.04566703711780207</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.435574884958839</v>
+        <v>1.25719631256294</v>
       </c>
       <c r="G6">
-        <v>1.735749360376616</v>
+        <v>0.9855967033023916</v>
       </c>
       <c r="H6">
-        <v>1.5457472495915</v>
+        <v>0.7245029437134747</v>
       </c>
       <c r="I6">
-        <v>1.572971208435867</v>
+        <v>0.7974348405089486</v>
       </c>
       <c r="J6">
-        <v>0.2011075411331049</v>
+        <v>0.08381715298882852</v>
       </c>
       <c r="K6">
-        <v>0.4364681337670504</v>
+        <v>0.7193515057548154</v>
       </c>
       <c r="L6">
-        <v>0.3568143628496827</v>
+        <v>0.2078632282469925</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.71437358762023</v>
+        <v>0.838395044532632</v>
       </c>
       <c r="C7">
-        <v>0.04426963671148343</v>
+        <v>0.07946743993101535</v>
       </c>
       <c r="D7">
-        <v>0.09043328612244039</v>
+        <v>0.04742973763852376</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.433575359399534</v>
+        <v>1.265573979963683</v>
       </c>
       <c r="G7">
-        <v>1.734325211515497</v>
+        <v>0.991949468473166</v>
       </c>
       <c r="H7">
-        <v>1.543490572246313</v>
+        <v>0.7250163704524653</v>
       </c>
       <c r="I7">
-        <v>1.570531684780534</v>
+        <v>0.7976951557251581</v>
       </c>
       <c r="J7">
-        <v>0.200834276103329</v>
+        <v>0.08386811871025301</v>
       </c>
       <c r="K7">
-        <v>0.446174514586545</v>
+        <v>0.7557334348740312</v>
       </c>
       <c r="L7">
-        <v>0.357972536517579</v>
+        <v>0.2146027021056227</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7579783708798686</v>
+        <v>1.011118623997504</v>
       </c>
       <c r="C8">
-        <v>0.04817399387237487</v>
+        <v>0.09118299153251996</v>
       </c>
       <c r="D8">
-        <v>0.09203213262835419</v>
+        <v>0.05526954026314002</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.427043728704248</v>
+        <v>1.306811263328441</v>
       </c>
       <c r="G8">
-        <v>1.729861687113001</v>
+        <v>1.023737915370958</v>
       </c>
       <c r="H8">
-        <v>1.534771093126835</v>
+        <v>0.729459589980948</v>
       </c>
       <c r="I8">
-        <v>1.561141433105256</v>
+        <v>0.8014460264279464</v>
       </c>
       <c r="J8">
-        <v>0.1997630396080794</v>
+        <v>0.08429555741184558</v>
       </c>
       <c r="K8">
-        <v>0.4894435233016452</v>
+        <v>0.9170767845597254</v>
       </c>
       <c r="L8">
-        <v>0.3634290118155121</v>
+        <v>0.2448510409216027</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8461074605866088</v>
+        <v>1.354978721776064</v>
       </c>
       <c r="C9">
-        <v>0.05566424351540888</v>
+        <v>0.1142721999006966</v>
       </c>
       <c r="D9">
-        <v>0.09541091368141963</v>
+        <v>0.07090743022851598</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.422464748366949</v>
+        <v>1.404585879972416</v>
       </c>
       <c r="G9">
-        <v>1.72765664344648</v>
+        <v>1.101054564496962</v>
       </c>
       <c r="H9">
-        <v>1.522118139958252</v>
+        <v>0.746663603334639</v>
       </c>
       <c r="I9">
-        <v>1.547665751336176</v>
+        <v>0.8189826273170553</v>
       </c>
       <c r="J9">
-        <v>0.1981446808177125</v>
+        <v>0.08590940196266317</v>
       </c>
       <c r="K9">
-        <v>0.5758411030798243</v>
+        <v>1.237542507609959</v>
       </c>
       <c r="L9">
-        <v>0.3753647294920484</v>
+        <v>0.3062939569269361</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9124339081292874</v>
+        <v>1.612071861453131</v>
       </c>
       <c r="C10">
-        <v>0.06106744206546466</v>
+        <v>0.1314169991765937</v>
       </c>
       <c r="D10">
-        <v>0.09803941765790114</v>
+        <v>0.08260360074817896</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.424114426428389</v>
+        <v>1.488333367611943</v>
       </c>
       <c r="G10">
-        <v>1.73003448075454</v>
+        <v>1.168509554332402</v>
       </c>
       <c r="H10">
-        <v>1.515527807586835</v>
+        <v>0.7651598067104146</v>
       </c>
       <c r="I10">
-        <v>1.540774642113291</v>
+        <v>0.8389195635829836</v>
       </c>
       <c r="J10">
-        <v>0.1972484417691618</v>
+        <v>0.08761662418475424</v>
       </c>
       <c r="K10">
-        <v>0.6402491327094992</v>
+        <v>1.476732409762235</v>
       </c>
       <c r="L10">
-        <v>0.3848826899176885</v>
+        <v>0.3530415849458137</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9429465887147899</v>
+        <v>1.730317911794344</v>
       </c>
       <c r="C11">
-        <v>0.06350414120169035</v>
+        <v>0.1392830975189838</v>
       </c>
       <c r="D11">
-        <v>0.09926645781003884</v>
+        <v>0.08798060976658917</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.425953192681945</v>
+        <v>1.529405293548635</v>
       </c>
       <c r="G11">
-        <v>1.731985806652361</v>
+        <v>1.201875200600654</v>
       </c>
       <c r="H11">
-        <v>1.513116350340752</v>
+        <v>0.7750099922744909</v>
       </c>
       <c r="I11">
-        <v>1.538293012354593</v>
+        <v>0.8497245840511241</v>
       </c>
       <c r="J11">
-        <v>0.1969040289019723</v>
+        <v>0.08851820767681673</v>
       </c>
       <c r="K11">
-        <v>0.6697503705125314</v>
+        <v>1.586664712284403</v>
       </c>
       <c r="L11">
-        <v>0.3893743979871545</v>
+        <v>0.3747314669655424</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9545494412377309</v>
+        <v>1.775309043104727</v>
       </c>
       <c r="C12">
-        <v>0.06442381703116951</v>
+        <v>0.1422738555261134</v>
       </c>
       <c r="D12">
-        <v>0.09973556464169064</v>
+        <v>0.09002583573226985</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.426805898277138</v>
+        <v>1.545420835716541</v>
       </c>
       <c r="G12">
-        <v>1.732849854085515</v>
+        <v>1.214928425812587</v>
       </c>
       <c r="H12">
-        <v>1.512287452691496</v>
+        <v>0.7789614135381555</v>
       </c>
       <c r="I12">
-        <v>1.537447183166528</v>
+        <v>0.8540842127817143</v>
       </c>
       <c r="J12">
-        <v>0.1967826876270919</v>
+        <v>0.08887863481301039</v>
       </c>
       <c r="K12">
-        <v>0.6809504086623974</v>
+        <v>1.62848210405113</v>
       </c>
       <c r="L12">
-        <v>0.3910984787737419</v>
+        <v>0.3830125082862565</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9520484178165134</v>
+        <v>1.765609413939586</v>
       </c>
       <c r="C13">
-        <v>0.06422588391426132</v>
+        <v>0.1416291659519544</v>
       </c>
       <c r="D13">
-        <v>0.0996343368294319</v>
+        <v>0.08958494016793139</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.426615298225144</v>
+        <v>1.541950449761373</v>
       </c>
       <c r="G13">
-        <v>1.732658200031793</v>
+        <v>1.212098018658907</v>
       </c>
       <c r="H13">
-        <v>1.512462223883233</v>
+        <v>0.7781003093297301</v>
       </c>
       <c r="I13">
-        <v>1.537625171170944</v>
+        <v>0.8531330600284335</v>
       </c>
       <c r="J13">
-        <v>0.1968084171176514</v>
+        <v>0.08880014703871097</v>
       </c>
       <c r="K13">
-        <v>0.6785370169098144</v>
+        <v>1.619467149492237</v>
       </c>
       <c r="L13">
-        <v>0.3907261385870413</v>
+        <v>0.3812259233468751</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9439001965027387</v>
+        <v>1.734014903620022</v>
       </c>
       <c r="C14">
-        <v>0.06357986456536935</v>
+        <v>0.139528893064238</v>
       </c>
       <c r="D14">
-        <v>0.0993049625481035</v>
+        <v>0.08814868417111654</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.426020211239887</v>
+        <v>1.530713423924439</v>
       </c>
       <c r="G14">
-        <v>1.732054384309336</v>
+        <v>1.202940513846357</v>
       </c>
       <c r="H14">
-        <v>1.513046467966262</v>
+        <v>0.7753305521210336</v>
       </c>
       <c r="I14">
-        <v>1.538221543463678</v>
+        <v>0.8500777713665997</v>
       </c>
       <c r="J14">
-        <v>0.1968938642158093</v>
+        <v>0.0885474728137261</v>
       </c>
       <c r="K14">
-        <v>0.6706712345526</v>
+        <v>1.590101116498147</v>
       </c>
       <c r="L14">
-        <v>0.3895157754975287</v>
+        <v>0.3754113599060389</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9389154563603199</v>
+        <v>1.714691081387315</v>
       </c>
       <c r="C15">
-        <v>0.06318376212298915</v>
+        <v>0.1382440585807387</v>
       </c>
       <c r="D15">
-        <v>0.0991037897559508</v>
+        <v>0.08727014695508473</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.425676068997063</v>
+        <v>1.523891729637228</v>
       </c>
       <c r="G15">
-        <v>1.731700826485735</v>
+        <v>1.197386787714635</v>
       </c>
       <c r="H15">
-        <v>1.513415306516833</v>
+        <v>0.7736632860935089</v>
       </c>
       <c r="I15">
-        <v>1.538599068147001</v>
+        <v>0.8482417925958572</v>
       </c>
       <c r="J15">
-        <v>0.1969473849544769</v>
+        <v>0.0883952116125144</v>
       </c>
       <c r="K15">
-        <v>0.6658569218909349</v>
+        <v>1.572138944917754</v>
       </c>
       <c r="L15">
-        <v>0.3887774068648184</v>
+        <v>0.3718587729697873</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9104466325673286</v>
+        <v>1.604372564291111</v>
       </c>
       <c r="C16">
-        <v>0.06090777104894585</v>
+        <v>0.1309044786451778</v>
       </c>
       <c r="D16">
-        <v>0.09795985362380577</v>
+        <v>0.08225341541174203</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.424016150430802</v>
+        <v>1.485711987021361</v>
       </c>
       <c r="G16">
-        <v>1.729924462309754</v>
+        <v>1.166385720654631</v>
       </c>
       <c r="H16">
-        <v>1.51569719808424</v>
+        <v>0.7645462156927181</v>
       </c>
       <c r="I16">
-        <v>1.540949964625185</v>
+        <v>0.8382498967710745</v>
       </c>
       <c r="J16">
-        <v>0.1972722217571743</v>
+        <v>0.08756030586761909</v>
       </c>
       <c r="K16">
-        <v>0.6383251781123818</v>
+        <v>1.469572929857321</v>
       </c>
       <c r="L16">
-        <v>0.3845923947519481</v>
+        <v>0.35163318439443</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8930687047293588</v>
+        <v>1.537046120210533</v>
       </c>
       <c r="C17">
-        <v>0.0595060872693125</v>
+        <v>0.1264206630158355</v>
       </c>
       <c r="D17">
-        <v>0.09726607176377655</v>
+        <v>0.07919091103195797</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.423276521683817</v>
+        <v>1.463075718969066</v>
       </c>
       <c r="G17">
-        <v>1.729057504954213</v>
+        <v>1.148076648432919</v>
       </c>
       <c r="H17">
-        <v>1.517247234735621</v>
+        <v>0.7593312212530066</v>
       </c>
       <c r="I17">
-        <v>1.542559445325324</v>
+        <v>0.8325773787436006</v>
       </c>
       <c r="J17">
-        <v>0.1974876941136863</v>
+        <v>0.08708084427744822</v>
       </c>
       <c r="K17">
-        <v>0.6214866884420189</v>
+        <v>1.406958201514669</v>
       </c>
       <c r="L17">
-        <v>0.3820664177547854</v>
+        <v>0.339338585190589</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8831054599947379</v>
+        <v>1.498441637804092</v>
       </c>
       <c r="C18">
-        <v>0.05869787601189103</v>
+        <v>0.1238478249665036</v>
       </c>
       <c r="D18">
-        <v>0.09686997782288387</v>
+        <v>0.07743468239515749</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.422953550166596</v>
+        <v>1.450333700591798</v>
       </c>
       <c r="G18">
-        <v>1.728640704058463</v>
+        <v>1.137795886294313</v>
       </c>
       <c r="H18">
-        <v>1.5181939848962</v>
+        <v>0.7564659163445668</v>
       </c>
       <c r="I18">
-        <v>1.543546656404189</v>
+        <v>0.8294768738706466</v>
       </c>
       <c r="J18">
-        <v>0.1976175865742107</v>
+        <v>0.08681676513869618</v>
       </c>
       <c r="K18">
-        <v>0.6118206461274553</v>
+        <v>1.371047893190507</v>
       </c>
       <c r="L18">
-        <v>0.3806287922166689</v>
+        <v>0.3323065578343289</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.879737604375407</v>
+        <v>1.485390601679882</v>
       </c>
       <c r="C19">
-        <v>0.05842388592978409</v>
+        <v>0.1229776893188301</v>
       </c>
       <c r="D19">
-        <v>0.09673637560692327</v>
+        <v>0.07684092588516478</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.422861795194137</v>
+        <v>1.446066164468562</v>
       </c>
       <c r="G19">
-        <v>1.728513638127268</v>
+        <v>1.134356994398914</v>
       </c>
       <c r="H19">
-        <v>1.518524022819577</v>
+        <v>0.7555183928349578</v>
       </c>
       <c r="I19">
-        <v>1.543891468888688</v>
+        <v>0.8284544124695259</v>
       </c>
       <c r="J19">
-        <v>0.1976625899345628</v>
+        <v>0.08672933037050257</v>
       </c>
       <c r="K19">
-        <v>0.6085511691403838</v>
+        <v>1.358906364183383</v>
       </c>
       <c r="L19">
-        <v>0.3801446596623634</v>
+        <v>0.3299322268721028</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8949152989912079</v>
+        <v>1.544200529676317</v>
       </c>
       <c r="C20">
-        <v>0.05965550583542267</v>
+        <v>0.1268973211014668</v>
       </c>
       <c r="D20">
-        <v>0.09733962097292448</v>
+        <v>0.07951637049170301</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.423344654600982</v>
+        <v>1.465456397949495</v>
       </c>
       <c r="G20">
-        <v>1.729141322360064</v>
+        <v>1.149999562079685</v>
       </c>
       <c r="H20">
-        <v>1.517076517170096</v>
+        <v>0.7598723710680702</v>
       </c>
       <c r="I20">
-        <v>1.542381750477503</v>
+        <v>0.8331643143940539</v>
       </c>
       <c r="J20">
-        <v>0.1974641401862662</v>
+        <v>0.08713066610879849</v>
       </c>
       <c r="K20">
-        <v>0.6232772100175339</v>
+        <v>1.413612692343918</v>
       </c>
       <c r="L20">
-        <v>0.382333734899504</v>
+        <v>0.3406432321681905</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9462922187826166</v>
+        <v>1.743288937175066</v>
       </c>
       <c r="C21">
-        <v>0.06376969882033734</v>
+        <v>0.1401454470196626</v>
       </c>
       <c r="D21">
-        <v>0.09940158729655479</v>
+        <v>0.08857029315768727</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.426190758682907</v>
+        <v>1.534001168236557</v>
       </c>
       <c r="G21">
-        <v>1.732228343272482</v>
+        <v>1.205618664078443</v>
       </c>
       <c r="H21">
-        <v>1.5128725748515</v>
+        <v>0.7761379646702551</v>
       </c>
       <c r="I21">
-        <v>1.538043825888145</v>
+        <v>0.8509677560261579</v>
       </c>
       <c r="J21">
-        <v>0.1968685200571443</v>
+        <v>0.08862116448812785</v>
       </c>
       <c r="K21">
-        <v>0.6729808339315184</v>
+        <v>1.59872129375438</v>
       </c>
       <c r="L21">
-        <v>0.3898706606335907</v>
+        <v>0.3771173498723215</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9801516271300272</v>
+        <v>1.87466626356516</v>
       </c>
       <c r="C22">
-        <v>0.06644079099849876</v>
+        <v>0.1488753124320112</v>
       </c>
       <c r="D22">
-        <v>0.1007751358419711</v>
+        <v>0.09454092307919382</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.428962455141402</v>
+        <v>1.581513079401304</v>
       </c>
       <c r="G22">
-        <v>1.734975232953857</v>
+        <v>1.244424877181373</v>
       </c>
       <c r="H22">
-        <v>1.510616206281412</v>
+        <v>0.7880665674885137</v>
       </c>
       <c r="I22">
-        <v>1.53575611489552</v>
+        <v>0.8641750959487524</v>
       </c>
       <c r="J22">
-        <v>0.1965321658619565</v>
+        <v>0.08970668297308748</v>
       </c>
       <c r="K22">
-        <v>0.7056312883507019</v>
+        <v>1.720812782016679</v>
       </c>
       <c r="L22">
-        <v>0.3949314659971037</v>
+        <v>0.4013524763834511</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9620546504543483</v>
+        <v>1.804422431189977</v>
       </c>
       <c r="C23">
-        <v>0.06501680303232149</v>
+        <v>0.1442086218990397</v>
       </c>
       <c r="D23">
-        <v>0.1000396907411414</v>
+        <v>0.09134906293598277</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.427399767919354</v>
+        <v>1.555894539554558</v>
       </c>
       <c r="G23">
-        <v>1.733442408185056</v>
+        <v>1.223476943198435</v>
       </c>
       <c r="H23">
-        <v>1.511775555826119</v>
+        <v>0.7815760431214898</v>
       </c>
       <c r="I23">
-        <v>1.536927029453615</v>
+        <v>0.8569757931424036</v>
       </c>
       <c r="J23">
-        <v>0.1967068492493027</v>
+        <v>0.08911676127430113</v>
       </c>
       <c r="K23">
-        <v>0.6881900595870718</v>
+        <v>1.655539021588254</v>
       </c>
       <c r="L23">
-        <v>0.392218106443508</v>
+        <v>0.3883790852331828</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8940803678430882</v>
+        <v>1.540965704330858</v>
       </c>
       <c r="C24">
-        <v>0.05958796106908437</v>
+        <v>0.1266818086897956</v>
       </c>
       <c r="D24">
-        <v>0.09730636074253596</v>
+        <v>0.07936921649367434</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.423313533190353</v>
+        <v>1.464379248749012</v>
       </c>
       <c r="G24">
-        <v>1.729103174255883</v>
+        <v>1.149129451018069</v>
       </c>
       <c r="H24">
-        <v>1.517153525337037</v>
+        <v>0.759627304500583</v>
       </c>
       <c r="I24">
-        <v>1.5424618934995</v>
+        <v>0.832898461613155</v>
       </c>
       <c r="J24">
-        <v>0.1974747701807438</v>
+        <v>0.08710810570005378</v>
       </c>
       <c r="K24">
-        <v>0.6224676696112965</v>
+        <v>1.410603925773216</v>
       </c>
       <c r="L24">
-        <v>0.3822128353572225</v>
+        <v>0.3400532886883809</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8219877070624477</v>
+        <v>1.261273740224652</v>
       </c>
       <c r="C25">
-        <v>0.05365557693571077</v>
+        <v>0.1080027170914093</v>
       </c>
       <c r="D25">
-        <v>0.09447103996460271</v>
+        <v>0.06664415075010766</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.422822777307076</v>
+        <v>1.376166323879971</v>
       </c>
       <c r="G25">
-        <v>1.727551536448246</v>
+        <v>1.07838452355378</v>
       </c>
       <c r="H25">
-        <v>1.525065607205065</v>
+        <v>0.7410332274827311</v>
       </c>
       <c r="I25">
-        <v>1.550782699081907</v>
+        <v>0.8130648566105521</v>
       </c>
       <c r="J25">
-        <v>0.1985309848058421</v>
+        <v>0.08538495350849473</v>
       </c>
       <c r="K25">
-        <v>0.552303828945611</v>
+        <v>1.150287536068703</v>
       </c>
       <c r="L25">
-        <v>0.3720039863548692</v>
+        <v>0.2894137882511814</v>
       </c>
       <c r="M25">
         <v>0</v>
